--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -13,37 +13,70 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Prueba (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>Radicado Final</t>
+  </si>
+  <si>
     <t>Ciudad</t>
   </si>
   <si>
+    <t>Entidad</t>
+  </si>
+  <si>
     <t>Jurisdiccion</t>
   </si>
   <si>
-    <t>Nombre/Razon Social</t>
-  </si>
-  <si>
-    <t>Tipo Sujeto</t>
+    <t>Tipo Sujeto Cliente</t>
+  </si>
+  <si>
+    <t>Tipo Persona_Demandante</t>
+  </si>
+  <si>
+    <t>Nombre/Razon Social_Demandante</t>
+  </si>
+  <si>
+    <t>Id_Demandante</t>
+  </si>
+  <si>
+    <t>Tipo Persona_Demandado</t>
+  </si>
+  <si>
+    <t>Nombre/Razon Social_Demandado</t>
+  </si>
+  <si>
+    <t>Id_Demandado</t>
+  </si>
+  <si>
+    <t>Tipo Persona_Tercero</t>
+  </si>
+  <si>
+    <t>Nombre/Razon Social_Tercero</t>
+  </si>
+  <si>
+    <t>Id_Tercero</t>
+  </si>
+  <si>
+    <t>Tipo de Proceso</t>
+  </si>
+  <si>
+    <t>Radicado Inicial</t>
   </si>
   <si>
     <t>Responsable</t>
   </si>
   <si>
-    <t>Tipo Persona</t>
-  </si>
-  <si>
-    <t>Nombre</t>
+    <t>Cuantia</t>
   </si>
   <si>
     <t>Fecha Radicacion</t>
@@ -52,28 +85,49 @@
     <t>Apoderado</t>
   </si>
   <si>
-    <t>Cedula</t>
-  </si>
-  <si>
-    <t>Nro Proceso</t>
-  </si>
-  <si>
     <t xml:space="preserve">MEDELLIN </t>
   </si>
   <si>
+    <t xml:space="preserve">TRIBUNAL ADMINISTRATIVO DE ANTIOQUIA (ORAL)                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>Demandante</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>alvaro uribe</t>
+  </si>
+  <si>
+    <t>23/04/2015</t>
+  </si>
+  <si>
+    <t>Demandado</t>
+  </si>
+  <si>
+    <t>Juridica</t>
+  </si>
+  <si>
     <t>epm</t>
   </si>
   <si>
-    <t>Demandado</t>
-  </si>
-  <si>
-    <t>Juridica</t>
-  </si>
-  <si>
-    <t>30/08/2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIBUNAL ADMINISTRATIVO DE ANTIOQUIA (ORAL)                                                                                                                                                                                                                    </t>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIBUNAL SUPERIOR DE MEDELLIN - SALA PENAL                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>julio cesar tabares arroyave</t>
+  </si>
+  <si>
+    <t>21/01/2013</t>
+  </si>
+  <si>
+    <t>18/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUZGADOS 1 AL 2 Y 101 CIRCUITO ESPECIALIZADO EN RESTITUCIÓN DE TIERRAS DE ANTIOQUIA  (TUTELAS)                                                                                                                                                                 </t>
   </si>
 </sst>
 </file>
@@ -132,15 +186,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,119 +477,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="63.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.5546875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="63.33203125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="63.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="63.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="63.33203125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="63.33203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <f>293+148</f>
-        <v>441</v>
+    <row r="1" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Prueba (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -103,6 +102,9 @@
     <t>23/04/2015</t>
   </si>
   <si>
+    <t xml:space="preserve">JUZGADOS 1 AL 2 Y 101 CIRCUITO ESPECIALIZADO EN RESTITUCIÓN DE TIERRAS DE ANTIOQUIA  (TUTELAS)                                                                                                                                                                 </t>
+  </si>
+  <si>
     <t>Demandado</t>
   </si>
   <si>
@@ -127,14 +129,14 @@
     <t>18/06/2014</t>
   </si>
   <si>
-    <t xml:space="preserve">JUZGADOS 1 AL 2 Y 101 CIRCUITO ESPECIALIZADO EN RESTITUCIÓN DE TIERRAS DE ANTIOQUIA  (TUTELAS)                                                                                                                                                                 </t>
+    <t>NN-2001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,14 +159,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,17 +180,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,178 +468,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="63.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="87.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="43.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="63.33203125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="63.33203125" style="1"/>
+    <col min="22" max="36" width="63.33203125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="63.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>1</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="5" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -662,16 +641,16 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -683,19 +662,19 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -703,228 +682,50 @@
         <v>4</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
+      <c r="D6" t="s">
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="63.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="63.33203125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="63.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>34</v>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -343,7 +343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,9 +830,6 @@
       <c r="A10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Tipo Sujeto</t>
@@ -843,40 +840,26 @@
           <t>Tipo Persona</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>Tipo Persona</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>Tipo Persona</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Tipo de Proceso</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Demandado</t>
@@ -887,32 +870,187 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Tipo Persona</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>Tipo Persona</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Tipo de Proceso</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ciudad</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tipo Sujeto</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Tipo de Proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ciudad</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tipo Sujeto</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Tipo de Proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ciudad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Demandante</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Tipo de Proceso</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENVIGADO </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Demandado</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Tipo Persona</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Tipo de Proceso</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -301,6 +301,24 @@
   </si>
   <si>
     <t>Radi Corto B - 2</t>
+  </si>
+  <si>
+    <t>Invento RadiCorto</t>
+  </si>
+  <si>
+    <t>Invento RadiComp</t>
+  </si>
+  <si>
+    <t>InventoFechaRad</t>
+  </si>
+  <si>
+    <t>Invento</t>
+  </si>
+  <si>
+    <t>Nit Invento</t>
+  </si>
+  <si>
+    <t>Nombre Invento</t>
   </si>
 </sst>
 </file>
@@ -654,11 +672,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="63.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1088,6 +1104,80 @@
         <v>67</v>
       </c>
       <c r="Z7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -674,7 +674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="63.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -945,7 +947,7 @@
         <v>66</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1001,7 +1003,7 @@
         <v>66</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">

--- a/Database-Process.xlsx
+++ b/Database-Process.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -301,24 +301,6 @@
   </si>
   <si>
     <t>Radi Corto B - 2</t>
-  </si>
-  <si>
-    <t>Invento RadiCorto</t>
-  </si>
-  <si>
-    <t>Invento RadiComp</t>
-  </si>
-  <si>
-    <t>InventoFechaRad</t>
-  </si>
-  <si>
-    <t>Invento</t>
-  </si>
-  <si>
-    <t>Nit Invento</t>
-  </si>
-  <si>
-    <t>Nombre Invento</t>
   </si>
 </sst>
 </file>
@@ -672,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="63.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,80 +1088,6 @@
         <v>67</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z8" s="3" t="s">
         <v>69</v>
       </c>
     </row>
